--- a/data_in/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
+++ b/data_in/MV2040 Indicators and Outcomes DRAFT baseline- August 2019.XLSX
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WilliamLa\Desktop\MV2040 outcomes framework\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3B4F1E-9D38-4A88-882C-45919DB060C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E2AE88-90E0-4E88-A36C-F49B874EF8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7995" tabRatio="538" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7995" tabRatio="538" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22920" windowHeight="15240" firstSheet="1" activeTab="7" xr2:uid="{EDE946D3-B550-4852-B98C-D382147A5E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Targets Indicators Measures" sheetId="9" r:id="rId1"/>
@@ -25,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Additional indicators'!$B$2:$F$143</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$L$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">data!$A$1:$L$106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">indicator_list!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Targets Indicators Measures'!$B$1:$AD$132</definedName>
   </definedNames>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="773">
   <si>
     <t>FAIR</t>
   </si>
@@ -3487,7 +3488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3758,6 +3759,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5906,10 +5910,11 @@
   </sheetPr>
   <dimension ref="A1:AD132"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15675,6 +15680,7 @@
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17659,6 +17665,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17728,7 +17735,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="99" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -17749,7 +17756,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
@@ -17768,7 +17775,7 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -17787,7 +17794,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
@@ -17806,7 +17813,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="2" t="s">
         <v>204</v>
       </c>
@@ -17825,7 +17832,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="100" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -17846,7 +17853,7 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
@@ -17865,7 +17872,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
@@ -17875,7 +17882,7 @@
       <c r="A15">
         <v>9</v>
       </c>
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="101" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17894,7 +17901,7 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="100"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
@@ -17913,7 +17920,7 @@
       <c r="A17">
         <v>11</v>
       </c>
-      <c r="B17" s="100"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="20"/>
       <c r="F17" s="2" t="s">
         <v>205</v>
@@ -17924,7 +17931,7 @@
       <c r="A18">
         <v>12</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -17945,7 +17952,7 @@
       <c r="A19">
         <v>13</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="D19" s="26" t="s">
         <v>180</v>
       </c>
@@ -17961,7 +17968,7 @@
       <c r="A20">
         <v>14</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="2" t="s">
         <v>192</v>
       </c>
@@ -17980,7 +17987,7 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="103" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -18001,7 +18008,7 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="102"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="2" t="s">
         <v>208</v>
       </c>
@@ -18335,6 +18342,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18373,14 +18381,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA757D16-73A3-4F6E-B04B-4E242565B189}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18424,7 +18433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>690</v>
       </c>
@@ -18456,7 +18465,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -18488,7 +18497,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>691</v>
       </c>
@@ -18520,7 +18529,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -18552,7 +18561,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -18584,7 +18593,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -18616,7 +18625,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>698</v>
       </c>
@@ -18648,7 +18657,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>739</v>
       </c>
@@ -18680,7 +18689,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>740</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>696</v>
       </c>
@@ -18776,7 +18785,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>699</v>
       </c>
@@ -18840,7 +18849,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>701</v>
       </c>
@@ -18872,7 +18881,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>702</v>
       </c>
@@ -18934,7 +18943,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>704</v>
       </c>
@@ -18966,7 +18975,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>705</v>
       </c>
@@ -18998,7 +19007,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>706</v>
       </c>
@@ -19026,7 +19035,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>707</v>
       </c>
@@ -19118,7 +19127,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>710</v>
       </c>
@@ -19148,7 +19157,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>711</v>
       </c>
@@ -19178,7 +19187,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>712</v>
       </c>
@@ -19210,7 +19219,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>713</v>
       </c>
@@ -19242,7 +19251,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>720</v>
       </c>
@@ -19274,7 +19283,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>714</v>
       </c>
@@ -19306,7 +19315,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -19338,7 +19347,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>722</v>
       </c>
@@ -19370,7 +19379,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>723</v>
       </c>
@@ -19402,7 +19411,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>724</v>
       </c>
@@ -19432,7 +19441,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>715</v>
       </c>
@@ -19464,7 +19473,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>716</v>
       </c>
@@ -19496,7 +19505,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>725</v>
       </c>
@@ -19528,7 +19537,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>717</v>
       </c>
@@ -19560,7 +19569,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>718</v>
       </c>
@@ -19592,7 +19601,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>726</v>
       </c>
@@ -19622,7 +19631,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>719</v>
       </c>
@@ -19654,7 +19663,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>727</v>
       </c>
@@ -19685,7 +19694,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}"/>
+  <autoFilter ref="A1:H41" xr:uid="{AF0461F5-5522-4400-ADC3-010F7ED92A51}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="ABS (Census of Population and Housing)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19700,6 +19715,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -20169,6 +20185,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20406,10 +20423,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="1">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20964,15 +20984,15 @@
         <v>697</v>
       </c>
       <c r="B33" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C33" s="95">
-        <v>15.9</v>
+        <v>16.7</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="87"/>
       <c r="F33" s="42" t="s">
-        <v>736</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -20980,31 +21000,31 @@
         <v>697</v>
       </c>
       <c r="B34" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C34" s="95">
-        <v>15.1</v>
+        <v>15.9</v>
       </c>
       <c r="D34" s="87"/>
       <c r="E34" s="87"/>
-      <c r="F34" s="2" t="s">
-        <v>738</v>
+      <c r="F34" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>699</v>
-      </c>
-      <c r="B35" s="91">
-        <v>42551</v>
+      <c r="A35" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="B35" s="90">
+        <v>51317</v>
       </c>
       <c r="C35" s="95">
-        <v>5.0999999999999996</v>
+        <v>15.1</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="87"/>
       <c r="F35" s="2" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -21012,10 +21032,10 @@
         <v>699</v>
       </c>
       <c r="B36" s="91">
-        <v>42916</v>
+        <v>42551</v>
       </c>
       <c r="C36" s="95">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="87"/>
@@ -21028,47 +21048,47 @@
         <v>699</v>
       </c>
       <c r="B37" s="91">
-        <v>43281</v>
+        <v>42916</v>
       </c>
       <c r="C37" s="95">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="87"/>
-      <c r="F37" s="42" t="s">
-        <v>736</v>
+      <c r="F37" s="2" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>699</v>
       </c>
-      <c r="B38" s="90">
-        <v>51317</v>
+      <c r="B38" s="91">
+        <v>43281</v>
       </c>
       <c r="C38" s="95">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
-      <c r="F38" s="2" t="s">
-        <v>738</v>
+      <c r="F38" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="59" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B39" s="90">
-        <v>42551</v>
+        <v>51317</v>
       </c>
       <c r="C39" s="95">
-        <v>17.2</v>
+        <v>2.1</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
-      <c r="F39" s="42" t="s">
-        <v>736</v>
+      <c r="F39" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -21076,74 +21096,74 @@
         <v>700</v>
       </c>
       <c r="B40" s="90">
-        <v>51317</v>
+        <v>40724</v>
       </c>
       <c r="C40" s="95">
-        <v>21.5</v>
+        <v>15.3</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
-      <c r="F40" s="2" t="s">
-        <v>738</v>
+      <c r="F40" s="42" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="B41" s="92">
+        <v>700</v>
+      </c>
+      <c r="B41" s="90">
         <v>42551</v>
       </c>
       <c r="C41" s="95">
-        <v>91.8</v>
+        <v>17.2</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
-      <c r="F41" s="2" t="s">
-        <v>769</v>
+      <c r="F41" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="59" t="s">
-        <v>701</v>
-      </c>
-      <c r="B42" s="92">
-        <v>42916</v>
+        <v>700</v>
+      </c>
+      <c r="B42" s="90">
+        <v>51317</v>
       </c>
       <c r="C42" s="95">
-        <v>91.600000000000009</v>
+        <v>21.5</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
-      <c r="F42" s="42" t="s">
-        <v>736</v>
+      <c r="F42" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
         <v>701</v>
       </c>
-      <c r="B43" s="90">
-        <v>51317</v>
+      <c r="B43" s="92">
+        <v>42551</v>
       </c>
       <c r="C43" s="95">
-        <v>96.2</v>
+        <v>91.8</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
       <c r="F43" s="2" t="s">
-        <v>738</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="B44" s="91">
-        <v>43281</v>
+        <v>701</v>
+      </c>
+      <c r="B44" s="92">
+        <v>42916</v>
       </c>
       <c r="C44" s="95">
-        <v>17.599999999999998</v>
+        <v>91.600000000000009</v>
       </c>
       <c r="D44" s="87"/>
       <c r="E44" s="87"/>
@@ -21153,61 +21173,61 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="59" t="s">
-        <v>702</v>
-      </c>
-      <c r="B45" s="91">
-        <v>43646</v>
+        <v>701</v>
+      </c>
+      <c r="B45" s="90">
+        <v>51317</v>
       </c>
       <c r="C45" s="95">
-        <v>16.97</v>
+        <v>96.2</v>
       </c>
       <c r="D45" s="87"/>
       <c r="E45" s="87"/>
-      <c r="F45" s="42" t="s">
-        <v>737</v>
+      <c r="F45" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="59" t="s">
         <v>702</v>
       </c>
-      <c r="B46" s="90">
-        <v>51317</v>
+      <c r="B46" s="91">
+        <v>43281</v>
       </c>
       <c r="C46" s="95">
-        <v>80</v>
-      </c>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="2" t="s">
-        <v>738</v>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="59" t="s">
-        <v>703</v>
-      </c>
-      <c r="B47" s="92">
-        <v>42551</v>
+        <v>702</v>
+      </c>
+      <c r="B47" s="91">
+        <v>43646</v>
       </c>
       <c r="C47" s="95">
-        <v>33</v>
-      </c>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+        <v>16.97</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
       <c r="F47" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="59" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B48" s="90">
         <v>51317</v>
       </c>
       <c r="C48" s="95">
-        <v>48.199999999999996</v>
+        <v>80</v>
       </c>
       <c r="D48" s="86"/>
       <c r="E48" s="86"/>
@@ -21217,181 +21237,181 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="B49" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C49" s="89">
-        <v>46.9</v>
-      </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
+        <v>703</v>
+      </c>
+      <c r="B49" s="92">
+        <v>42551</v>
+      </c>
+      <c r="C49" s="95">
+        <v>33</v>
+      </c>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="59" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B50" s="90">
         <v>51317</v>
       </c>
-      <c r="C50" s="89">
-        <v>49.3</v>
-      </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
+      <c r="C50" s="95">
+        <v>48.199999999999996</v>
+      </c>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B51" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C51" s="89">
-        <v>71</v>
-      </c>
-      <c r="D51" s="89">
-        <v>69.282534772719998</v>
-      </c>
-      <c r="E51" s="89">
-        <v>71.891836587279997</v>
-      </c>
+        <v>46.9</v>
+      </c>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
       <c r="F51" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>705</v>
-      </c>
-      <c r="B52" s="91">
-        <v>43646</v>
+        <v>704</v>
+      </c>
+      <c r="B52" s="90">
+        <v>51317</v>
       </c>
       <c r="C52" s="89">
-        <v>71</v>
-      </c>
-      <c r="D52" s="89">
-        <v>69.310210964059195</v>
-      </c>
-      <c r="E52" s="89">
-        <v>71.990952281489598</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>737</v>
+        <v>49.3</v>
+      </c>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="59" t="s">
         <v>705</v>
       </c>
-      <c r="B53" s="90">
-        <v>51317</v>
+      <c r="B53" s="91">
+        <v>43281</v>
       </c>
       <c r="C53" s="89">
-        <v>79</v>
-      </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="2" t="s">
-        <v>738</v>
+        <v>71</v>
+      </c>
+      <c r="D53" s="89">
+        <v>69.282534772719998</v>
+      </c>
+      <c r="E53" s="89">
+        <v>71.891836587279997</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="59" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B54" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C54" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
+        <v>43646</v>
+      </c>
+      <c r="C54" s="89">
+        <v>71</v>
+      </c>
+      <c r="D54" s="89">
+        <v>69.310210964059195</v>
+      </c>
+      <c r="E54" s="89">
+        <v>71.990952281489598</v>
+      </c>
       <c r="F54" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="59" t="s">
-        <v>706</v>
-      </c>
-      <c r="B55" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C55" s="95">
-        <v>16.7</v>
-      </c>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="42" t="s">
-        <v>737</v>
+        <v>705</v>
+      </c>
+      <c r="B55" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C55" s="89">
+        <v>79</v>
+      </c>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="59" t="s">
         <v>706</v>
       </c>
-      <c r="B56" s="90">
-        <v>51317</v>
+      <c r="B56" s="91">
+        <v>43281</v>
       </c>
       <c r="C56" s="95">
-        <v>100</v>
+        <v>16.7</v>
       </c>
       <c r="D56" s="88"/>
       <c r="E56" s="88"/>
-      <c r="F56" s="2" t="s">
-        <v>738</v>
+      <c r="F56" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="84" t="s">
-        <v>707</v>
+      <c r="A57" s="59" t="s">
+        <v>706</v>
       </c>
       <c r="B57" s="91">
-        <v>43281</v>
+        <v>43646</v>
       </c>
       <c r="C57" s="95">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
+        <v>16.7</v>
+      </c>
+      <c r="D57" s="88"/>
+      <c r="E57" s="88"/>
       <c r="F57" s="42" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="84" t="s">
-        <v>707</v>
+      <c r="A58" s="59" t="s">
+        <v>706</v>
       </c>
       <c r="B58" s="90">
         <v>51317</v>
       </c>
       <c r="C58" s="95">
-        <v>90</v>
-      </c>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
+        <v>100</v>
+      </c>
+      <c r="D58" s="88"/>
+      <c r="E58" s="88"/>
       <c r="F58" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="84" t="s">
-        <v>708</v>
-      </c>
-      <c r="B59" s="90">
-        <v>42551</v>
+        <v>707</v>
+      </c>
+      <c r="B59" s="91">
+        <v>43281</v>
       </c>
       <c r="C59" s="95">
-        <v>15.9</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -21401,13 +21421,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="84" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B60" s="90">
         <v>51317</v>
       </c>
       <c r="C60" s="95">
-        <v>15.1</v>
+        <v>90</v>
       </c>
       <c r="D60" s="87"/>
       <c r="E60" s="87"/>
@@ -21416,14 +21436,14 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="84" t="s">
-        <v>709</v>
+      <c r="A61" s="98" t="s">
+        <v>708</v>
       </c>
       <c r="B61" s="90">
-        <v>42551</v>
+        <v>40724</v>
       </c>
       <c r="C61" s="95">
-        <v>11</v>
+        <v>21.6</v>
       </c>
       <c r="D61" s="87"/>
       <c r="E61" s="87"/>
@@ -21433,135 +21453,135 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="84" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B62" s="90">
-        <v>51317</v>
+        <v>42551</v>
       </c>
       <c r="C62" s="95">
-        <v>11.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
-      <c r="F62" s="2" t="s">
-        <v>738</v>
+      <c r="F62" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B63" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C63" s="89">
-        <v>2</v>
-      </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="42" t="s">
-        <v>736</v>
+        <v>708</v>
+      </c>
+      <c r="B63" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C63" s="95">
+        <v>50.1</v>
+      </c>
+      <c r="D63" s="87"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="84" t="s">
-        <v>710</v>
-      </c>
-      <c r="B64" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C64" s="89">
-        <v>1</v>
-      </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
+        <v>709</v>
+      </c>
+      <c r="B64" s="90">
+        <v>42551</v>
+      </c>
+      <c r="C64" s="95">
+        <v>11</v>
+      </c>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
       <c r="F64" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="84" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B65" s="90">
         <v>51317</v>
       </c>
-      <c r="C65" s="89">
-        <v>0</v>
-      </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
+      <c r="C65" s="95">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="D65" s="87"/>
+      <c r="E65" s="87"/>
       <c r="F65" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="84" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B66" s="91">
         <v>43281</v>
       </c>
-      <c r="C66" s="95">
-        <v>0</v>
-      </c>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
+      <c r="C66" s="89">
+        <v>2</v>
+      </c>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="84" t="s">
-        <v>711</v>
-      </c>
-      <c r="B67" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C67" s="95">
-        <v>100</v>
-      </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="2" t="s">
-        <v>738</v>
+        <v>710</v>
+      </c>
+      <c r="B67" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C67" s="89">
+        <v>1</v>
+      </c>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="84" t="s">
-        <v>712</v>
-      </c>
-      <c r="B68" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C68" s="95">
+        <v>710</v>
+      </c>
+      <c r="B68" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C68" s="89">
         <v>0</v>
       </c>
-      <c r="D68" s="88"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="42" t="s">
-        <v>736</v>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B69" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C69" s="95">
-        <v>60.699999999999996</v>
-      </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
       <c r="F69" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="84" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B70" s="90">
         <v>51317</v>
@@ -21569,69 +21589,69 @@
       <c r="C70" s="95">
         <v>100</v>
       </c>
-      <c r="D70" s="88"/>
-      <c r="E70" s="88"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
       <c r="F70" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="60" t="s">
-        <v>713</v>
+      <c r="A71" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B71" s="91">
         <v>43281</v>
       </c>
-      <c r="C71" s="89">
-        <v>2773</v>
-      </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
+      <c r="C71" s="95">
+        <v>0</v>
+      </c>
+      <c r="D71" s="88"/>
+      <c r="E71" s="88"/>
       <c r="F71" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
-        <v>713</v>
+      <c r="A72" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B72" s="91">
         <v>43646</v>
       </c>
-      <c r="C72" s="89">
-        <v>1746</v>
-      </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
+      <c r="C72" s="95">
+        <v>60.699999999999996</v>
+      </c>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
       <c r="F72" s="42" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="60" t="s">
-        <v>713</v>
+      <c r="A73" s="84" t="s">
+        <v>712</v>
       </c>
       <c r="B73" s="90">
         <v>51317</v>
       </c>
-      <c r="C73" s="89">
-        <v>139</v>
-      </c>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
+      <c r="C73" s="95">
+        <v>100</v>
+      </c>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
       <c r="F73" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B74" s="91">
         <v>43281</v>
       </c>
       <c r="C74" s="89">
-        <v>1300000</v>
+        <v>2773</v>
       </c>
       <c r="D74" s="89"/>
       <c r="E74" s="89"/>
@@ -21641,61 +21661,61 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
-        <v>720</v>
-      </c>
-      <c r="B75" s="90">
-        <v>51317</v>
+        <v>713</v>
+      </c>
+      <c r="B75" s="91">
+        <v>43646</v>
       </c>
       <c r="C75" s="89">
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="89"/>
-      <c r="F75" s="2" t="s">
-        <v>738</v>
+      <c r="F75" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
-        <v>714</v>
-      </c>
-      <c r="B76" s="91">
-        <v>43281</v>
+        <v>713</v>
+      </c>
+      <c r="B76" s="90">
+        <v>51317</v>
       </c>
       <c r="C76" s="89">
-        <v>49917</v>
+        <v>139</v>
       </c>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
-      <c r="F76" s="42" t="s">
-        <v>736</v>
+      <c r="F76" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B77" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C77" s="89">
-        <v>51573</v>
+        <v>1300000</v>
       </c>
       <c r="D77" s="89"/>
       <c r="E77" s="89"/>
       <c r="F77" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B78" s="90">
         <v>51317</v>
       </c>
       <c r="C78" s="89">
-        <v>54909</v>
+        <v>0</v>
       </c>
       <c r="D78" s="89"/>
       <c r="E78" s="89"/>
@@ -21705,13 +21725,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B79" s="91">
-        <v>42185</v>
+        <v>43281</v>
       </c>
       <c r="C79" s="89">
-        <v>127</v>
+        <v>49917</v>
       </c>
       <c r="D79" s="89"/>
       <c r="E79" s="89"/>
@@ -21721,133 +21741,145 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
-        <v>721</v>
-      </c>
-      <c r="B80" s="90">
-        <v>51317</v>
+        <v>714</v>
+      </c>
+      <c r="B80" s="91">
+        <v>43646</v>
       </c>
       <c r="C80" s="89">
-        <v>57</v>
+        <v>51573</v>
       </c>
       <c r="D80" s="89"/>
       <c r="E80" s="89"/>
-      <c r="F80" s="2" t="s">
-        <v>738</v>
+      <c r="F80" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B81" s="91">
-        <v>42185</v>
+        <v>714</v>
+      </c>
+      <c r="B81" s="90">
+        <v>51317</v>
       </c>
       <c r="C81" s="89">
-        <v>12000</v>
+        <v>54909</v>
       </c>
       <c r="D81" s="89"/>
       <c r="E81" s="89"/>
-      <c r="F81" s="42" t="s">
-        <v>736</v>
+      <c r="F81" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
-        <v>722</v>
-      </c>
-      <c r="B82" s="90">
-        <v>51317</v>
+        <v>721</v>
+      </c>
+      <c r="B82" s="91">
+        <v>42185</v>
       </c>
       <c r="C82" s="89">
-        <v>6700</v>
+        <v>127</v>
       </c>
       <c r="D82" s="89"/>
       <c r="E82" s="89"/>
-      <c r="F82" s="2" t="s">
-        <v>738</v>
+      <c r="F82" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="s">
-        <v>723</v>
-      </c>
-      <c r="B83" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C83" s="95">
-        <v>17</v>
-      </c>
-      <c r="D83" s="95">
-        <v>16</v>
-      </c>
-      <c r="E83" s="95">
-        <v>18</v>
-      </c>
-      <c r="F83" s="42" t="s">
-        <v>736</v>
+        <v>721</v>
+      </c>
+      <c r="B83" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C83" s="89">
+        <v>57</v>
+      </c>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="s">
-        <v>724</v>
-      </c>
-      <c r="B84" s="90">
-        <v>51317</v>
-      </c>
-      <c r="C84" s="95">
-        <v>30</v>
-      </c>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="2" t="s">
-        <v>738</v>
+        <v>722</v>
+      </c>
+      <c r="B84" s="91">
+        <v>42185</v>
+      </c>
+      <c r="C84" s="89">
+        <v>12000</v>
+      </c>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="42" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="60" t="s">
-        <v>715</v>
-      </c>
-      <c r="B85" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C85" s="95">
-        <v>41.67</v>
-      </c>
-      <c r="F85" s="42" t="s">
-        <v>736</v>
+        <v>722</v>
+      </c>
+      <c r="B85" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C85" s="89">
+        <v>6700</v>
+      </c>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="60" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B86" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C86" s="95">
-        <v>41.11</v>
+        <v>17</v>
+      </c>
+      <c r="D86" s="95">
+        <v>16</v>
+      </c>
+      <c r="E86" s="95">
+        <v>18</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B87" s="90">
         <v>51317</v>
       </c>
       <c r="C87" s="95">
-        <v>90</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D87" s="88"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="2" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
-        <v>716</v>
+        <v>715</v>
+      </c>
+      <c r="B88" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C88" s="95">
+        <v>41.67</v>
       </c>
       <c r="F88" s="42" t="s">
         <v>736</v>
@@ -21855,71 +21887,65 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
-        <v>716</v>
-      </c>
-      <c r="B89" s="90">
-        <v>51317</v>
+        <v>715</v>
+      </c>
+      <c r="B89" s="91">
+        <v>43646</v>
       </c>
       <c r="C89" s="95">
-        <v>75</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>738</v>
+        <v>41.11</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="F90" s="42" t="s">
-        <v>736</v>
+        <v>715</v>
+      </c>
+      <c r="B90" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C90" s="95">
+        <v>90</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
-        <v>725</v>
-      </c>
-      <c r="B91" s="90">
+        <v>716</v>
+      </c>
+      <c r="F91" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="60" t="s">
+        <v>716</v>
+      </c>
+      <c r="B92" s="90">
         <v>51317</v>
-      </c>
-      <c r="C91" s="95">
-        <v>100</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B92" s="91">
-        <v>43281</v>
       </c>
       <c r="C92" s="95">
         <v>75</v>
       </c>
-      <c r="F92" s="42" t="s">
+      <c r="F92" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="F93" s="42" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="B93" s="91">
-        <v>43646</v>
-      </c>
-      <c r="C93" s="95">
-        <v>80</v>
-      </c>
-      <c r="F93" s="42" t="s">
-        <v>737</v>
-      </c>
-    </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="61" t="s">
-        <v>717</v>
+      <c r="A94" s="60" t="s">
+        <v>725</v>
       </c>
       <c r="B94" s="90">
         <v>51317</v>
@@ -21933,13 +21959,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="61" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B95" s="91">
-        <v>43646</v>
+        <v>43281</v>
       </c>
       <c r="C95" s="95">
-        <v>5.5</v>
+        <v>75</v>
       </c>
       <c r="F95" s="42" t="s">
         <v>736</v>
@@ -21947,55 +21973,55 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="61" t="s">
-        <v>718</v>
-      </c>
-      <c r="B96" s="90">
-        <v>51317</v>
+        <v>717</v>
+      </c>
+      <c r="B96" s="91">
+        <v>43646</v>
       </c>
       <c r="C96" s="95">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>738</v>
+        <v>80</v>
+      </c>
+      <c r="F96" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="61" t="s">
-        <v>726</v>
-      </c>
-      <c r="B97" s="91">
-        <v>43281</v>
-      </c>
-      <c r="C97" s="89">
-        <v>4.17</v>
-      </c>
-      <c r="F97" s="42" t="s">
-        <v>736</v>
+        <v>717</v>
+      </c>
+      <c r="B97" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C97" s="95">
+        <v>100</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B98" s="91">
         <v>43646</v>
       </c>
-      <c r="C98" s="89">
-        <v>4.13</v>
+      <c r="C98" s="95">
+        <v>5.5</v>
       </c>
       <c r="F98" s="42" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B99" s="90">
         <v>51317</v>
       </c>
-      <c r="C99" s="89">
-        <v>4.38</v>
+      <c r="C99" s="95">
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>738</v>
@@ -22003,7 +22029,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="61" t="s">
-        <v>719</v>
+        <v>726</v>
+      </c>
+      <c r="B100" s="91">
+        <v>43281</v>
+      </c>
+      <c r="C100" s="89">
+        <v>4.17</v>
       </c>
       <c r="F100" s="42" t="s">
         <v>736</v>
@@ -22011,42 +22043,78 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>738</v>
+        <v>726</v>
+      </c>
+      <c r="B101" s="91">
+        <v>43646</v>
+      </c>
+      <c r="C101" s="89">
+        <v>4.13</v>
+      </c>
+      <c r="F101" s="42" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="B102" s="92">
-        <v>40724</v>
-      </c>
-      <c r="C102" s="95">
-        <v>55.000000000000007</v>
-      </c>
-      <c r="F102" s="42" t="s">
-        <v>736</v>
+        <v>726</v>
+      </c>
+      <c r="B102" s="90">
+        <v>51317</v>
+      </c>
+      <c r="C102" s="89">
+        <v>4.38</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="F103" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="B103" s="90">
+      <c r="B105" s="92">
+        <v>40724</v>
+      </c>
+      <c r="C105" s="95">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F105" s="42" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="61" t="s">
+        <v>727</v>
+      </c>
+      <c r="B106" s="90">
         <v>51317</v>
       </c>
-      <c r="C103" s="95">
+      <c r="C106" s="95">
         <v>57.8</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>738</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L103" xr:uid="{04467087-7743-4CB4-9D75-48881BCA7D64}"/>
+  <autoFilter ref="A1:L106" xr:uid="{04467087-7743-4CB4-9D75-48881BCA7D64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -22061,6 +22129,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
